--- a/Synergy-Template.xlsx
+++ b/Synergy-Template.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OV-Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub-Sources\Import-Export-OneView-Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10643" tabRatio="723" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10650" tabRatio="723" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="11" r:id="rId1"/>
@@ -34,8 +34,10 @@
     <sheet name="ProfileLOCALStorage" sheetId="27" r:id="rId20"/>
     <sheet name="ProfileTemplateSANStorage" sheetId="32" r:id="rId21"/>
     <sheet name="ProfileSANStorage" sheetId="20" r:id="rId22"/>
+    <sheet name="IP" sheetId="33" r:id="rId23"/>
+    <sheet name="WWNN" sheetId="34" r:id="rId24"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="377">
   <si>
     <t>Yes</t>
   </si>
@@ -1901,11 +1903,57 @@
   <si>
     <t>FwInstall</t>
   </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Bay Number</t>
+  </si>
+  <si>
+    <t>IP address</t>
+  </si>
+  <si>
+    <t># IP address of Synergy Devices</t>
+  </si>
+  <si>
+    <t># Export only</t>
+  </si>
+  <si>
+    <t># Host appliance or Synergy frame</t>
+  </si>
+  <si>
+    <t># Device Bay --&gt; iLO   
+# Interconnect Bay --&gt; Virtual Connect device</t>
+  </si>
+  <si>
+    <t>Bay Name</t>
+  </si>
+  <si>
+    <t>WWPN</t>
+  </si>
+  <si>
+    <t>WWNN</t>
+  </si>
+  <si>
+    <t># Virtual and Physical WWNN</t>
+  </si>
+  <si>
+    <t>OSDeployName</t>
+  </si>
+  <si>
+    <t>OSDeployParams</t>
+  </si>
+  <si>
+    <t># HPE Synergy Image Streamer OS deployment plan</t>
+  </si>
+  <si>
+    <t># Configured OS Deployment Plan parameters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2623,16 +2671,16 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.53125" customWidth="1"/>
-    <col min="3" max="3" width="24.53125" customWidth="1"/>
-    <col min="7" max="7" width="22.796875" customWidth="1"/>
-    <col min="8" max="8" width="9.46484375" customWidth="1"/>
-    <col min="9" max="9" width="29.19921875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" s="33" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>68</v>
       </c>
@@ -2664,7 +2712,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2696,7 +2744,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
@@ -2724,7 +2772,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="31" t="s">
@@ -2747,7 +2795,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="31" t="s">
@@ -2770,7 +2818,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>44</v>
       </c>
@@ -2793,7 +2841,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>45</v>
       </c>
@@ -2816,7 +2864,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" t="s">
@@ -2841,7 +2889,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" t="s">
@@ -2866,7 +2914,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="G10" s="14"/>
@@ -2885,21 +2933,21 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.46484375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="81.46484375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="90.796875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="27.53125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="29.19921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36.19921875" customWidth="1"/>
-    <col min="9" max="9" width="30.53125" customWidth="1"/>
-    <col min="10" max="10" width="27.796875" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="81.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="90.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -2931,22 +2979,22 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>159</v>
       </c>
@@ -2955,7 +3003,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -2968,7 +3016,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" s="47" customFormat="1" ht="168" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" s="47" customFormat="1" ht="168" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>160</v>
       </c>
@@ -3002,7 +3050,7 @@
       <c r="M8" s="48"/>
       <c r="O8" s="50"/>
     </row>
-    <row r="9" spans="1:15" s="18" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -3012,7 +3060,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -3022,7 +3070,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -3032,7 +3080,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -3042,7 +3090,7 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -3052,7 +3100,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -3061,7 +3109,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -3070,7 +3118,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -3079,7 +3127,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -3088,7 +3136,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -3097,7 +3145,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -3106,7 +3154,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -3115,7 +3163,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -3124,7 +3172,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -3133,7 +3181,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -3142,7 +3190,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -3151,7 +3199,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -3160,7 +3208,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -3169,7 +3217,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -3178,7 +3226,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -3187,7 +3235,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -3196,7 +3244,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -3205,7 +3253,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -3214,7 +3262,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -3223,7 +3271,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -3232,7 +3280,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -3241,79 +3289,79 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="E40" s="4"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="E42" s="4"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="E44" s="4"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="E46" s="4"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="E47" s="4"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="E48" s="4"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="E49" s="4"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="E50" s="4"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="E51" s="4"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="E52" s="4"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="E53" s="4"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="E54" s="4"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="56" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
@@ -3324,7 +3372,7 @@
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
@@ -3335,7 +3383,7 @@
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -3344,7 +3392,7 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:12" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3353,7 +3401,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="61" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -3362,17 +3410,17 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="E63" s="4"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="E65" s="4"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="67" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
@@ -3383,7 +3431,7 @@
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
@@ -3394,7 +3442,7 @@
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -3403,7 +3451,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3412,7 +3460,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="72" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3421,17 +3469,17 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="E74" s="4"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="E76" s="4"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -3440,7 +3488,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
@@ -3451,7 +3499,7 @@
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
     </row>
-    <row r="79" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
@@ -3462,7 +3510,7 @@
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -3471,7 +3519,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -3480,7 +3528,7 @@
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="83" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -3489,17 +3537,17 @@
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="E85" s="4"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="E87" s="4"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="89" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
@@ -3510,7 +3558,7 @@
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
     </row>
-    <row r="90" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
@@ -3521,7 +3569,7 @@
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
     </row>
-    <row r="92" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -3530,7 +3578,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="94" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -3539,17 +3587,17 @@
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="E96" s="4"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="E98" s="4"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="100" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="12"/>
@@ -3560,7 +3608,7 @@
       <c r="K100" s="11"/>
       <c r="L100" s="11"/>
     </row>
-    <row r="101" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="12"/>
@@ -3571,7 +3619,7 @@
       <c r="K101" s="11"/>
       <c r="L101" s="11"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -3580,7 +3628,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -3589,7 +3637,7 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="105" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -3598,17 +3646,17 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="E107" s="4"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="E109" s="4"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="111" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="12"/>
@@ -3619,7 +3667,7 @@
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
     </row>
-    <row r="112" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="12"/>
@@ -3630,7 +3678,7 @@
       <c r="K112" s="11"/>
       <c r="L112" s="11"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -3639,7 +3687,7 @@
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="122" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
@@ -3650,7 +3698,7 @@
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
     </row>
-    <row r="123" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="12"/>
@@ -3661,7 +3709,7 @@
       <c r="K123" s="11"/>
       <c r="L123" s="11"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -3670,7 +3718,7 @@
       <c r="F124"/>
       <c r="G124"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -3689,26 +3737,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O135"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.46484375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="38.796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="65.19921875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="90.796875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="27.53125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="29.19921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36.19921875" customWidth="1"/>
-    <col min="9" max="9" width="30.53125" customWidth="1"/>
-    <col min="10" max="10" width="27.796875" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="90.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1"/>
+    <col min="10" max="10" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>344</v>
       </c>
@@ -3725,22 +3773,22 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="3" spans="1:15" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>159</v>
       </c>
@@ -3749,7 +3797,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -3762,7 +3810,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" s="47" customFormat="1" ht="168" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" s="47" customFormat="1" ht="168" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>333</v>
       </c>
@@ -3786,7 +3834,7 @@
       <c r="M8" s="48"/>
       <c r="O8" s="50"/>
     </row>
-    <row r="9" spans="1:15" s="18" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -3796,7 +3844,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -3806,7 +3854,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -3816,7 +3864,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
     </row>
-    <row r="12" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -3826,7 +3874,7 @@
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
     </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -3836,8 +3884,8 @@
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -3846,7 +3894,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -3855,7 +3903,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -3864,7 +3912,7 @@
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -3873,7 +3921,7 @@
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -3882,7 +3930,7 @@
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -3891,7 +3939,7 @@
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -3900,7 +3948,7 @@
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -3909,7 +3957,7 @@
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -3918,7 +3966,7 @@
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -3927,7 +3975,7 @@
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -3936,7 +3984,7 @@
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -3945,7 +3993,7 @@
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -3954,7 +4002,7 @@
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -3963,7 +4011,7 @@
       <c r="F29"/>
       <c r="G29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -3972,7 +4020,7 @@
       <c r="F30"/>
       <c r="G30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -3981,7 +4029,7 @@
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -3990,7 +4038,7 @@
       <c r="F32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -3999,7 +4047,7 @@
       <c r="F33"/>
       <c r="G33"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -4008,7 +4056,7 @@
       <c r="F34"/>
       <c r="G34"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -4017,79 +4065,79 @@
       <c r="F35"/>
       <c r="G35"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="E40" s="4"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="9"/>
       <c r="E42" s="4"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="E44" s="4"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="E46" s="4"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="E47" s="4"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="E48" s="4"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="E49" s="4"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="E50" s="4"/>
       <c r="G50" s="9"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="E51" s="4"/>
       <c r="G51" s="9"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="E52" s="4"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="E53" s="4"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="E54" s="4"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="56" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="12"/>
@@ -4100,7 +4148,7 @@
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
@@ -4111,7 +4159,7 @@
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -4120,7 +4168,7 @@
       <c r="F58"/>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:12" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -4129,7 +4177,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="61" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -4138,17 +4186,17 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="E63" s="4"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="9"/>
       <c r="E65" s="4"/>
       <c r="G65" s="9"/>
     </row>
-    <row r="67" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="12"/>
@@ -4159,7 +4207,7 @@
       <c r="K67" s="11"/>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="12"/>
@@ -4170,7 +4218,7 @@
       <c r="K68" s="11"/>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -4179,7 +4227,7 @@
       <c r="F69"/>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -4188,7 +4236,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
-    <row r="72" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -4197,17 +4245,17 @@
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="9"/>
       <c r="E74" s="4"/>
       <c r="G74" s="9"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="E76" s="4"/>
       <c r="G76" s="9"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -4216,7 +4264,7 @@
       <c r="F77"/>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="12"/>
@@ -4227,7 +4275,7 @@
       <c r="K78" s="11"/>
       <c r="L78" s="11"/>
     </row>
-    <row r="79" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="12"/>
@@ -4238,7 +4286,7 @@
       <c r="K79" s="11"/>
       <c r="L79" s="11"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -4247,7 +4295,7 @@
       <c r="F80"/>
       <c r="G80"/>
     </row>
-    <row r="81" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -4256,7 +4304,7 @@
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
-    <row r="83" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -4265,17 +4313,17 @@
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="E85" s="4"/>
       <c r="G85" s="9"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="E87" s="4"/>
       <c r="G87" s="9"/>
     </row>
-    <row r="89" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="12"/>
@@ -4286,7 +4334,7 @@
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
     </row>
-    <row r="90" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="12"/>
@@ -4297,7 +4345,7 @@
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
     </row>
-    <row r="92" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -4306,7 +4354,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
     </row>
-    <row r="94" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -4315,17 +4363,17 @@
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="E96" s="4"/>
       <c r="G96" s="9"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="E98" s="4"/>
       <c r="G98" s="9"/>
     </row>
-    <row r="100" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="12"/>
@@ -4336,7 +4384,7 @@
       <c r="K100" s="11"/>
       <c r="L100" s="11"/>
     </row>
-    <row r="101" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="12"/>
@@ -4347,7 +4395,7 @@
       <c r="K101" s="11"/>
       <c r="L101" s="11"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -4356,7 +4404,7 @@
       <c r="F102"/>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" s="8" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -4365,7 +4413,7 @@
       <c r="F103" s="9"/>
       <c r="G103" s="9"/>
     </row>
-    <row r="105" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -4374,17 +4422,17 @@
       <c r="F105" s="9"/>
       <c r="G105" s="9"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
       <c r="E107" s="4"/>
       <c r="G107" s="9"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
       <c r="E109" s="4"/>
       <c r="G109" s="9"/>
     </row>
-    <row r="111" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="12"/>
@@ -4395,7 +4443,7 @@
       <c r="K111" s="11"/>
       <c r="L111" s="11"/>
     </row>
-    <row r="112" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="12"/>
@@ -4406,7 +4454,7 @@
       <c r="K112" s="11"/>
       <c r="L112" s="11"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -4415,7 +4463,7 @@
       <c r="F113"/>
       <c r="G113"/>
     </row>
-    <row r="122" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="12"/>
@@ -4426,7 +4474,7 @@
       <c r="K122" s="11"/>
       <c r="L122" s="11"/>
     </row>
-    <row r="123" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="12"/>
@@ -4437,7 +4485,7 @@
       <c r="K123" s="11"/>
       <c r="L123" s="11"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -4446,7 +4494,7 @@
       <c r="F124"/>
       <c r="G124"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -4470,20 +4518,20 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.19921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="95.19921875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="27.796875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="39.796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.796875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="35.46484375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="32.53125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="38.796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="95.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="38.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -4512,22 +4560,22 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>159</v>
       </c>
@@ -4536,7 +4584,7 @@
       <c r="N5" s="23"/>
       <c r="O5" s="23"/>
     </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4549,7 +4597,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" s="47" customFormat="1" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" s="47" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48"/>
       <c r="B7" s="48"/>
       <c r="C7" s="45"/>
@@ -4565,7 +4613,7 @@
       <c r="M7" s="48"/>
       <c r="O7" s="50"/>
     </row>
-    <row r="8" spans="1:15" s="18" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -4575,7 +4623,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
     </row>
-    <row r="9" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4585,7 +4633,7 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4595,7 +4643,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -4606,7 +4654,7 @@
       <c r="H11"/>
       <c r="I11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -4617,7 +4665,7 @@
       <c r="H12"/>
       <c r="I12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -4628,7 +4676,7 @@
       <c r="H13"/>
       <c r="I13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -4639,29 +4687,29 @@
       <c r="H14"/>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C15" s="63"/>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C16" s="63"/>
     </row>
-    <row r="17" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C17" s="63"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C18" s="64"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="64"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="E21" s="9"/>
     </row>
@@ -4680,16 +4728,16 @@
       <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.796875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="26.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="37" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.796875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>230</v>
       </c>
@@ -4707,25 +4755,25 @@
       </c>
       <c r="F1" s="40"/>
     </row>
-    <row r="3" spans="1:15" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>228</v>
       </c>
       <c r="F3" s="41"/>
     </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>229</v>
       </c>
       <c r="F4" s="42"/>
     </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="42"/>
     </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>232</v>
       </c>
@@ -4734,7 +4782,7 @@
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
     </row>
-    <row r="7" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4747,7 +4795,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" s="47" customFormat="1" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" s="47" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>233</v>
       </c>
@@ -4773,7 +4821,7 @@
       <c r="M8" s="48"/>
       <c r="O8" s="50"/>
     </row>
-    <row r="9" spans="1:15" s="18" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -4783,18 +4831,18 @@
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="9"/>
@@ -4802,10 +4850,10 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="9"/>
@@ -4813,10 +4861,10 @@
       <c r="E15" s="7"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="9"/>
@@ -4824,10 +4872,10 @@
       <c r="E17" s="7"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="9"/>
@@ -4835,17 +4883,17 @@
       <c r="E19" s="7"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
     </row>
@@ -4864,20 +4912,20 @@
       <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.796875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="26.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="37" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.796875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="29.46484375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.86328125" customWidth="1"/>
-    <col min="8" max="8" width="25.59765625" customWidth="1"/>
-    <col min="10" max="10" width="32.1328125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="28.796875" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="10" max="10" width="32.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -4909,12 +4957,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D2" s="7"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:15" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>351</v>
       </c>
@@ -4923,19 +4971,19 @@
       </c>
       <c r="J3" s="35"/>
     </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>352</v>
       </c>
       <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="23"/>
     </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>60</v>
       </c>
@@ -4947,7 +4995,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4957,7 +5005,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:15" s="47" customFormat="1" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" s="47" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>233</v>
       </c>
@@ -4992,7 +5040,7 @@
       <c r="M8" s="48"/>
       <c r="O8" s="50"/>
     </row>
-    <row r="9" spans="1:15" s="8" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="9"/>
@@ -5002,12 +5050,12 @@
       <c r="G9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" s="16"/>
       <c r="D10" s="7"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="16"/>
       <c r="C11" s="9"/>
@@ -5017,13 +5065,13 @@
       <c r="G11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B12" s="16"/>
       <c r="D12" s="7"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="9"/>
@@ -5033,12 +5081,12 @@
       <c r="G13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="16"/>
       <c r="D14" s="7"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="9"/>
@@ -5048,12 +5096,12 @@
       <c r="G15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" s="16"/>
       <c r="D16" s="7"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="9"/>
@@ -5062,10 +5110,10 @@
       <c r="F17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="9"/>
@@ -5074,17 +5122,17 @@
       <c r="F19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
     </row>
@@ -5096,31 +5144,31 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.73046875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="35.796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.46484375" style="4" customWidth="1"/>
-    <col min="5" max="7" width="23.19921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="35.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="51.265625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="31.19921875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="57.53125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="59.796875" style="4" customWidth="1"/>
-    <col min="13" max="14" width="23" style="4" customWidth="1"/>
-    <col min="15" max="15" width="35.19921875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="44.19921875" style="4" customWidth="1"/>
-    <col min="17" max="18" width="18" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" style="4" customWidth="1"/>
+    <col min="2" max="3" width="35.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="4" customWidth="1"/>
+    <col min="5" max="9" width="23.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="35.85546875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="51.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="31.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="57.5703125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="59.85546875" style="4" customWidth="1"/>
+    <col min="15" max="16" width="23" style="4" customWidth="1"/>
+    <col min="17" max="17" width="35.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="44.140625" style="4" customWidth="1"/>
+    <col min="19" max="20" width="18" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>287</v>
       </c>
@@ -5140,69 +5188,75 @@
         <v>260</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:21" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>289</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="1:19" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
+      <c r="N5" s="23"/>
       <c r="S5" s="23"/>
-    </row>
-    <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+    </row>
+    <row r="6" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5216,11 +5270,13 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
       <c r="S6" s="19"/>
-    </row>
-    <row r="7" spans="1:19" s="47" customFormat="1" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" s="47" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>290</v>
       </c>
@@ -5236,44 +5292,50 @@
         <v>292</v>
       </c>
       <c r="G7" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="H7" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="I7" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="J7" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="K7" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="L7" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="M7" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="N7" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="M7" s="56" t="s">
+      <c r="O7" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="N7" s="56" t="s">
+      <c r="P7" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="Q7" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="P7" s="45" t="s">
+      <c r="R7" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="Q7" s="45" t="s">
+      <c r="S7" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="T7" s="45" t="s">
         <v>294</v>
       </c>
-      <c r="S7" s="50"/>
-    </row>
-    <row r="8" spans="1:19" s="8" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="U7" s="50"/>
+    </row>
+    <row r="8" spans="1:21" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -5284,16 +5346,18 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -5312,8 +5376,10 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -5332,8 +5398,10 @@
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -5352,8 +5420,10 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="S11"/>
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -5372,8 +5442,10 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="S12"/>
+      <c r="T12"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -5392,8 +5464,10 @@
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="S13"/>
+      <c r="T13"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -5412,8 +5486,10 @@
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="S14"/>
+      <c r="T14"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -5432,8 +5508,10 @@
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="S15"/>
+      <c r="T15"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -5444,59 +5522,67 @@
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
-      <c r="K16" s="72"/>
+      <c r="K16"/>
       <c r="L16"/>
-      <c r="M16"/>
+      <c r="M16" s="72"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
       <c r="R16"/>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S16"/>
+      <c r="T16"/>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="5:11" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="5:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5505,34 +5591,34 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W45"/>
+  <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="A1:XFD1"/>
+    <sheetView topLeftCell="H1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="46.53125" style="4" customWidth="1"/>
-    <col min="3" max="7" width="38.73046875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="1.19921875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="20.46484375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" style="4" customWidth="1"/>
+    <col min="3" max="7" width="38.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="1.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="4" customWidth="1"/>
     <col min="10" max="10" width="31" style="4" customWidth="1"/>
-    <col min="11" max="12" width="23.19921875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="35.796875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="51.265625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="31.19921875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="57.53125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="59.796875" style="4" customWidth="1"/>
-    <col min="18" max="19" width="23" style="4" customWidth="1"/>
-    <col min="20" max="20" width="35.19921875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="44.19921875" style="4" customWidth="1"/>
-    <col min="22" max="23" width="18" style="4" customWidth="1"/>
+    <col min="11" max="14" width="23.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="35.85546875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="51.28515625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="31.140625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="57.5703125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="59.85546875" style="4" customWidth="1"/>
+    <col min="20" max="21" width="23" style="4" customWidth="1"/>
+    <col min="22" max="22" width="35.140625" style="4" customWidth="1"/>
+    <col min="23" max="23" width="44.140625" style="4" customWidth="1"/>
+    <col min="24" max="25" width="18" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -5567,43 +5653,49 @@
         <v>260</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:25" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>286</v>
       </c>
@@ -5615,17 +5707,17 @@
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
-    <row r="3" spans="1:23" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:25" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>60</v>
       </c>
@@ -5644,15 +5736,17 @@
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="23"/>
+      <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
+      <c r="S5" s="23"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-    </row>
-    <row r="6" spans="1:23" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+    </row>
+    <row r="6" spans="1:25" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -5671,10 +5765,12 @@
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-    </row>
-    <row r="7" spans="1:23" ht="185.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+    </row>
+    <row r="7" spans="1:25" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>265</v>
       </c>
@@ -5705,43 +5801,49 @@
         <v>273</v>
       </c>
       <c r="L7" s="56" t="s">
+        <v>375</v>
+      </c>
+      <c r="M7" s="56" t="s">
+        <v>376</v>
+      </c>
+      <c r="N7" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="M7" s="53" t="s">
+      <c r="O7" s="53" t="s">
         <v>275</v>
       </c>
-      <c r="N7" s="56" t="s">
+      <c r="P7" s="56" t="s">
         <v>276</v>
       </c>
-      <c r="O7" s="56" t="s">
+      <c r="Q7" s="56" t="s">
         <v>277</v>
       </c>
-      <c r="P7" s="56" t="s">
+      <c r="R7" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="Q7" s="56" t="s">
+      <c r="S7" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="R7" s="56" t="s">
+      <c r="T7" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="S7" s="56" t="s">
+      <c r="U7" s="56" t="s">
         <v>281</v>
       </c>
-      <c r="T7" s="45" t="s">
+      <c r="V7" s="45" t="s">
         <v>282</v>
       </c>
-      <c r="U7" s="45" t="s">
+      <c r="W7" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="V7" s="45" t="s">
+      <c r="X7" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="W7" s="45" t="s">
+      <c r="Y7" s="45" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="8" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:25" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -5765,8 +5867,10 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="9"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -5790,8 +5894,10 @@
       <c r="U9"/>
       <c r="V9"/>
       <c r="W9"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X9"/>
+      <c r="Y9"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -5815,8 +5921,10 @@
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X10"/>
+      <c r="Y10"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -5840,8 +5948,10 @@
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X11"/>
+      <c r="Y11"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -5865,8 +5975,10 @@
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X12"/>
+      <c r="Y12"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -5890,8 +6002,10 @@
       <c r="U13"/>
       <c r="V13"/>
       <c r="W13"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X13"/>
+      <c r="Y13"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -5915,8 +6029,10 @@
       <c r="U14"/>
       <c r="V14"/>
       <c r="W14"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X14"/>
+      <c r="Y14"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -5940,8 +6056,10 @@
       <c r="U15"/>
       <c r="V15"/>
       <c r="W15"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X15"/>
+      <c r="Y15"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -5965,8 +6083,10 @@
       <c r="U16"/>
       <c r="V16"/>
       <c r="W16"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X16"/>
+      <c r="Y16"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -5978,8 +6098,6 @@
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
@@ -5990,8 +6108,10 @@
       <c r="U17"/>
       <c r="V17"/>
       <c r="W17"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X17"/>
+      <c r="Y17"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -6003,8 +6123,8 @@
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
@@ -6015,8 +6135,10 @@
       <c r="U18"/>
       <c r="V18"/>
       <c r="W18"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X18"/>
+      <c r="Y18"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -6028,8 +6150,6 @@
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
@@ -6040,8 +6160,10 @@
       <c r="U19"/>
       <c r="V19"/>
       <c r="W19"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X19"/>
+      <c r="Y19"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -6053,8 +6175,8 @@
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
@@ -6065,8 +6187,10 @@
       <c r="U20"/>
       <c r="V20"/>
       <c r="W20"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X20"/>
+      <c r="Y20"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -6078,8 +6202,6 @@
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
@@ -6090,8 +6212,10 @@
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X21"/>
+      <c r="Y21"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -6103,8 +6227,8 @@
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
@@ -6115,8 +6239,10 @@
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X22"/>
+      <c r="Y22"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -6128,8 +6254,6 @@
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
       <c r="N23"/>
       <c r="O23"/>
       <c r="P23"/>
@@ -6140,8 +6264,10 @@
       <c r="U23"/>
       <c r="V23"/>
       <c r="W23"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X23"/>
+      <c r="Y23"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -6153,8 +6279,6 @@
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
       <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
@@ -6165,8 +6289,10 @@
       <c r="U24"/>
       <c r="V24"/>
       <c r="W24"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X24"/>
+      <c r="Y24"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -6178,8 +6304,6 @@
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
@@ -6190,8 +6314,10 @@
       <c r="U25"/>
       <c r="V25"/>
       <c r="W25"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X25"/>
+      <c r="Y25"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -6203,8 +6329,6 @@
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
@@ -6215,8 +6339,10 @@
       <c r="U26"/>
       <c r="V26"/>
       <c r="W26"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X26"/>
+      <c r="Y26"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -6228,8 +6354,6 @@
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
@@ -6240,8 +6364,10 @@
       <c r="U27"/>
       <c r="V27"/>
       <c r="W27"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X27"/>
+      <c r="Y27"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -6253,8 +6379,6 @@
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
@@ -6265,8 +6389,10 @@
       <c r="U28"/>
       <c r="V28"/>
       <c r="W28"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X28"/>
+      <c r="Y28"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -6278,8 +6404,6 @@
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
@@ -6290,8 +6414,10 @@
       <c r="U29"/>
       <c r="V29"/>
       <c r="W29"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X29"/>
+      <c r="Y29"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -6303,8 +6429,6 @@
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
@@ -6315,8 +6439,10 @@
       <c r="U30"/>
       <c r="V30"/>
       <c r="W30"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X30"/>
+      <c r="Y30"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -6328,8 +6454,6 @@
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
@@ -6340,8 +6464,10 @@
       <c r="U31"/>
       <c r="V31"/>
       <c r="W31"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X31"/>
+      <c r="Y31"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -6353,8 +6479,6 @@
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
@@ -6365,8 +6489,10 @@
       <c r="U32"/>
       <c r="V32"/>
       <c r="W32"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X32"/>
+      <c r="Y32"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -6378,8 +6504,6 @@
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
@@ -6390,8 +6514,10 @@
       <c r="U33"/>
       <c r="V33"/>
       <c r="W33"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X33"/>
+      <c r="Y33"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -6403,8 +6529,6 @@
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
       <c r="P34"/>
@@ -6415,8 +6539,10 @@
       <c r="U34"/>
       <c r="V34"/>
       <c r="W34"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X34"/>
+      <c r="Y34"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -6428,8 +6554,6 @@
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
@@ -6440,8 +6564,10 @@
       <c r="U35"/>
       <c r="V35"/>
       <c r="W35"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X35"/>
+      <c r="Y35"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -6453,8 +6579,6 @@
       <c r="I36"/>
       <c r="J36"/>
       <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
       <c r="P36"/>
@@ -6465,8 +6589,10 @@
       <c r="U36"/>
       <c r="V36"/>
       <c r="W36"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X36"/>
+      <c r="Y36"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -6478,8 +6604,6 @@
       <c r="I37"/>
       <c r="J37"/>
       <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
       <c r="N37"/>
       <c r="O37"/>
       <c r="P37"/>
@@ -6490,8 +6614,10 @@
       <c r="U37"/>
       <c r="V37"/>
       <c r="W37"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X37"/>
+      <c r="Y37"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -6503,8 +6629,6 @@
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
       <c r="N38"/>
       <c r="O38"/>
       <c r="P38"/>
@@ -6515,8 +6639,10 @@
       <c r="U38"/>
       <c r="V38"/>
       <c r="W38"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X38"/>
+      <c r="Y38"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -6528,8 +6654,6 @@
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
       <c r="P39"/>
@@ -6540,8 +6664,10 @@
       <c r="U39"/>
       <c r="V39"/>
       <c r="W39"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X39"/>
+      <c r="Y39"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -6552,8 +6678,6 @@
       <c r="I40"/>
       <c r="J40"/>
       <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
       <c r="P40"/>
@@ -6564,8 +6688,10 @@
       <c r="U40"/>
       <c r="V40"/>
       <c r="W40"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X40"/>
+      <c r="Y40"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -6576,8 +6702,6 @@
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
       <c r="P41"/>
@@ -6588,8 +6712,10 @@
       <c r="U41"/>
       <c r="V41"/>
       <c r="W41"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X41"/>
+      <c r="Y41"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -6600,8 +6726,6 @@
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
@@ -6612,8 +6736,10 @@
       <c r="U42"/>
       <c r="V42"/>
       <c r="W42"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X42"/>
+      <c r="Y42"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -6624,8 +6750,6 @@
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
@@ -6636,8 +6760,10 @@
       <c r="U43"/>
       <c r="V43"/>
       <c r="W43"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X43"/>
+      <c r="Y43"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -6648,8 +6774,6 @@
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
@@ -6660,8 +6784,10 @@
       <c r="U44"/>
       <c r="V44"/>
       <c r="W44"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X44"/>
+      <c r="Y44"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -6672,8 +6798,6 @@
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
@@ -6684,6 +6808,8 @@
       <c r="U45"/>
       <c r="V45"/>
       <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6699,25 +6825,25 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.53125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.73046875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.46484375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="39.53125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="21" style="4" customWidth="1"/>
-    <col min="7" max="7" width="40.73046875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="33.19921875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.46484375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23.46484375" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="18.46484375" customWidth="1"/>
-    <col min="13" max="13" width="18.46484375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="4" customWidth="1"/>
     <col min="14" max="14" width="18" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -6757,28 +6883,28 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:15" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="21"/>
     </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>159</v>
       </c>
@@ -6787,7 +6913,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -6800,7 +6926,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" s="47" customFormat="1" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" s="47" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>243</v>
       </c>
@@ -6840,8 +6966,8 @@
       <c r="M9" s="48"/>
       <c r="O9" s="50"/>
     </row>
-    <row r="10" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6857,25 +6983,25 @@
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.53125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="35.73046875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.46484375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="39.53125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="21" style="4" customWidth="1"/>
-    <col min="7" max="7" width="40.73046875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="33.19921875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.46484375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="23.46484375" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="33.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="18.46484375" customWidth="1"/>
-    <col min="13" max="13" width="18.46484375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="4" customWidth="1"/>
     <col min="14" max="14" width="18" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -6915,28 +7041,28 @@
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
     </row>
-    <row r="3" spans="1:15" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="21"/>
     </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>159</v>
       </c>
@@ -6945,7 +7071,7 @@
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
     </row>
-    <row r="8" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -6958,7 +7084,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" s="47" customFormat="1" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" s="47" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>243</v>
       </c>
@@ -6998,7 +7124,7 @@
       <c r="M9" s="48"/>
       <c r="O9" s="50"/>
     </row>
-    <row r="10" spans="1:15" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -7011,7 +7137,7 @@
       <c r="M10"/>
       <c r="N10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -7024,7 +7150,7 @@
       <c r="M11"/>
       <c r="N11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -7037,7 +7163,7 @@
       <c r="M12"/>
       <c r="N12"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -7050,7 +7176,7 @@
       <c r="M13"/>
       <c r="N13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -7063,7 +7189,7 @@
       <c r="M14"/>
       <c r="N14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -7076,7 +7202,7 @@
       <c r="M15"/>
       <c r="N15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -7089,7 +7215,7 @@
       <c r="M16"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -7102,7 +7228,7 @@
       <c r="M17"/>
       <c r="N17"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -7115,7 +7241,7 @@
       <c r="M18"/>
       <c r="N18"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -7128,7 +7254,7 @@
       <c r="M19"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -7141,7 +7267,7 @@
       <c r="M20"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -7154,7 +7280,7 @@
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -7167,7 +7293,7 @@
       <c r="M22"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -7180,7 +7306,7 @@
       <c r="M23"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -7193,7 +7319,7 @@
       <c r="M24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -7206,7 +7332,7 @@
       <c r="M25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -7219,7 +7345,7 @@
       <c r="M26"/>
       <c r="N26"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -7232,7 +7358,7 @@
       <c r="M27"/>
       <c r="N27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -7245,7 +7371,7 @@
       <c r="M28"/>
       <c r="N28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -7258,7 +7384,7 @@
       <c r="M29"/>
       <c r="N29"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -7271,7 +7397,7 @@
       <c r="M30"/>
       <c r="N30"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -7284,7 +7410,7 @@
       <c r="M31"/>
       <c r="N31"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -7297,7 +7423,7 @@
       <c r="M32"/>
       <c r="N32"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -7310,7 +7436,7 @@
       <c r="M33"/>
       <c r="N33"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -7323,7 +7449,7 @@
       <c r="M34"/>
       <c r="N34"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -7336,7 +7462,7 @@
       <c r="M35"/>
       <c r="N35"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -7349,7 +7475,7 @@
       <c r="M36"/>
       <c r="N36"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -7362,7 +7488,7 @@
       <c r="M37"/>
       <c r="N37"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -7375,7 +7501,7 @@
       <c r="M38"/>
       <c r="N38"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39"/>
@@ -7388,7 +7514,7 @@
       <c r="M39"/>
       <c r="N39"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -7401,7 +7527,7 @@
       <c r="M40"/>
       <c r="N40"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -7414,7 +7540,7 @@
       <c r="M41"/>
       <c r="N41"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -7427,7 +7553,7 @@
       <c r="M42"/>
       <c r="N42"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -7440,7 +7566,7 @@
       <c r="M43"/>
       <c r="N43"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -7453,7 +7579,7 @@
       <c r="M44"/>
       <c r="N44"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -7466,7 +7592,7 @@
       <c r="M45"/>
       <c r="N45"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
@@ -7479,7 +7605,7 @@
       <c r="M46"/>
       <c r="N46"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -7492,7 +7618,7 @@
       <c r="M47"/>
       <c r="N47"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -7505,7 +7631,7 @@
       <c r="M48"/>
       <c r="N48"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
@@ -7518,7 +7644,7 @@
       <c r="M49"/>
       <c r="N49"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
@@ -7531,7 +7657,7 @@
       <c r="M50"/>
       <c r="N50"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
@@ -7544,7 +7670,7 @@
       <c r="M51"/>
       <c r="N51"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
@@ -7557,7 +7683,7 @@
       <c r="M52"/>
       <c r="N52"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
@@ -7570,7 +7696,7 @@
       <c r="M53"/>
       <c r="N53"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
@@ -7583,7 +7709,7 @@
       <c r="M54"/>
       <c r="N54"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
@@ -7596,7 +7722,7 @@
       <c r="M55"/>
       <c r="N55"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -7609,7 +7735,7 @@
       <c r="M56"/>
       <c r="N56"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
@@ -7622,7 +7748,7 @@
       <c r="M57"/>
       <c r="N57"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
@@ -7635,7 +7761,7 @@
       <c r="M58"/>
       <c r="N58"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59"/>
       <c r="B59"/>
       <c r="C59"/>
@@ -7648,7 +7774,7 @@
       <c r="M59"/>
       <c r="N59"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
@@ -7661,7 +7787,7 @@
       <c r="M60"/>
       <c r="N60"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -7674,7 +7800,7 @@
       <c r="M61"/>
       <c r="N61"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62"/>
       <c r="B62"/>
       <c r="C62"/>
@@ -7687,7 +7813,7 @@
       <c r="M62"/>
       <c r="N62"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63"/>
       <c r="B63"/>
       <c r="C63"/>
@@ -7700,7 +7826,7 @@
       <c r="M63"/>
       <c r="N63"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -7713,7 +7839,7 @@
       <c r="M64"/>
       <c r="N64"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -7726,7 +7852,7 @@
       <c r="M65"/>
       <c r="N65"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -7739,7 +7865,7 @@
       <c r="M66"/>
       <c r="N66"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67"/>
       <c r="B67"/>
       <c r="C67"/>
@@ -7752,7 +7878,7 @@
       <c r="M67"/>
       <c r="N67"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -7765,7 +7891,7 @@
       <c r="M68"/>
       <c r="N68"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -7778,7 +7904,7 @@
       <c r="M69"/>
       <c r="N69"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70"/>
       <c r="B70"/>
       <c r="C70"/>
@@ -7791,7 +7917,7 @@
       <c r="M70"/>
       <c r="N70"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
@@ -7804,7 +7930,7 @@
       <c r="M71"/>
       <c r="N71"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -7817,7 +7943,7 @@
       <c r="M72"/>
       <c r="N72"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -7830,7 +7956,7 @@
       <c r="M73"/>
       <c r="N73"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -7843,7 +7969,7 @@
       <c r="M74"/>
       <c r="N74"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -7856,7 +7982,7 @@
       <c r="M75"/>
       <c r="N75"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -7869,7 +7995,7 @@
       <c r="M76"/>
       <c r="N76"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -7882,7 +8008,7 @@
       <c r="M77"/>
       <c r="N77"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -7895,7 +8021,7 @@
       <c r="M78"/>
       <c r="N78"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -7908,7 +8034,7 @@
       <c r="M79"/>
       <c r="N79"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -7921,7 +8047,7 @@
       <c r="M80"/>
       <c r="N80"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -7934,7 +8060,7 @@
       <c r="M81"/>
       <c r="N81"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -7947,7 +8073,7 @@
       <c r="M82"/>
       <c r="N82"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -7960,7 +8086,7 @@
       <c r="M83"/>
       <c r="N83"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -7973,7 +8099,7 @@
       <c r="M84"/>
       <c r="N84"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -7986,7 +8112,7 @@
       <c r="M85"/>
       <c r="N85"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -7999,7 +8125,7 @@
       <c r="M86"/>
       <c r="N86"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -8012,7 +8138,7 @@
       <c r="M87"/>
       <c r="N87"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -8025,7 +8151,7 @@
       <c r="M88"/>
       <c r="N88"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -8038,7 +8164,7 @@
       <c r="M89"/>
       <c r="N89"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -8051,7 +8177,7 @@
       <c r="M90"/>
       <c r="N90"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -8064,7 +8190,7 @@
       <c r="M91"/>
       <c r="N91"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -8077,7 +8203,7 @@
       <c r="M92"/>
       <c r="N92"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -8090,7 +8216,7 @@
       <c r="M93"/>
       <c r="N93"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -8103,7 +8229,7 @@
       <c r="M94"/>
       <c r="N94"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -8116,7 +8242,7 @@
       <c r="M95"/>
       <c r="N95"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -8129,7 +8255,7 @@
       <c r="M96"/>
       <c r="N96"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -8142,7 +8268,7 @@
       <c r="M97"/>
       <c r="N97"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -8155,7 +8281,7 @@
       <c r="M98"/>
       <c r="N98"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -8168,7 +8294,7 @@
       <c r="M99"/>
       <c r="N99"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -8181,7 +8307,7 @@
       <c r="M100"/>
       <c r="N100"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -8194,7 +8320,7 @@
       <c r="M101"/>
       <c r="N101"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -8207,7 +8333,7 @@
       <c r="M102"/>
       <c r="N102"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -8220,7 +8346,7 @@
       <c r="M103"/>
       <c r="N103"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -8233,7 +8359,7 @@
       <c r="M104"/>
       <c r="N104"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -8246,7 +8372,7 @@
       <c r="M105"/>
       <c r="N105"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -8259,7 +8385,7 @@
       <c r="M106"/>
       <c r="N106"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -8272,7 +8398,7 @@
       <c r="M107"/>
       <c r="N107"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -8285,7 +8411,7 @@
       <c r="M108"/>
       <c r="N108"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -8298,7 +8424,7 @@
       <c r="M109"/>
       <c r="N109"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -8311,7 +8437,7 @@
       <c r="M110"/>
       <c r="N110"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -8324,7 +8450,7 @@
       <c r="M111"/>
       <c r="N111"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -8337,7 +8463,7 @@
       <c r="M112"/>
       <c r="N112"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -8350,7 +8476,7 @@
       <c r="M113"/>
       <c r="N113"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -8363,7 +8489,7 @@
       <c r="M114"/>
       <c r="N114"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -8376,7 +8502,7 @@
       <c r="M115"/>
       <c r="N115"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -8389,7 +8515,7 @@
       <c r="M116"/>
       <c r="N116"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -8402,7 +8528,7 @@
       <c r="M117"/>
       <c r="N117"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -8415,7 +8541,7 @@
       <c r="M118"/>
       <c r="N118"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -8428,7 +8554,7 @@
       <c r="M119"/>
       <c r="N119"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -8441,7 +8567,7 @@
       <c r="M120"/>
       <c r="N120"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -8454,7 +8580,7 @@
       <c r="M121"/>
       <c r="N121"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -8467,7 +8593,7 @@
       <c r="M122"/>
       <c r="N122"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -8480,7 +8606,7 @@
       <c r="M123"/>
       <c r="N123"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -8493,7 +8619,7 @@
       <c r="M124"/>
       <c r="N124"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -8506,7 +8632,7 @@
       <c r="M125"/>
       <c r="N125"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -8519,7 +8645,7 @@
       <c r="M126"/>
       <c r="N126"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -8532,7 +8658,7 @@
       <c r="M127"/>
       <c r="N127"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -8545,7 +8671,7 @@
       <c r="M128"/>
       <c r="N128"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -8558,7 +8684,7 @@
       <c r="M129"/>
       <c r="N129"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -8571,7 +8697,7 @@
       <c r="M130"/>
       <c r="N130"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -8584,7 +8710,7 @@
       <c r="M131"/>
       <c r="N131"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -8597,7 +8723,7 @@
       <c r="M132"/>
       <c r="N132"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -8610,7 +8736,7 @@
       <c r="M133"/>
       <c r="N133"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -8623,7 +8749,7 @@
       <c r="M134"/>
       <c r="N134"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -8636,7 +8762,7 @@
       <c r="M135"/>
       <c r="N135"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -8649,7 +8775,7 @@
       <c r="M136"/>
       <c r="N136"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -8662,7 +8788,7 @@
       <c r="M137"/>
       <c r="N137"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -8675,7 +8801,7 @@
       <c r="M138"/>
       <c r="N138"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -8688,7 +8814,7 @@
       <c r="M139"/>
       <c r="N139"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -8701,7 +8827,7 @@
       <c r="M140"/>
       <c r="N140"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -8714,7 +8840,7 @@
       <c r="M141"/>
       <c r="N141"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -8727,7 +8853,7 @@
       <c r="M142"/>
       <c r="N142"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -8740,7 +8866,7 @@
       <c r="M143"/>
       <c r="N143"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144"/>
       <c r="B144"/>
       <c r="C144"/>
@@ -8753,7 +8879,7 @@
       <c r="M144"/>
       <c r="N144"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145"/>
       <c r="B145"/>
       <c r="C145"/>
@@ -8766,7 +8892,7 @@
       <c r="M145"/>
       <c r="N145"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146"/>
       <c r="B146"/>
       <c r="C146"/>
@@ -8779,7 +8905,7 @@
       <c r="M146"/>
       <c r="N146"/>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -8792,7 +8918,7 @@
       <c r="M147"/>
       <c r="N147"/>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148"/>
       <c r="B148"/>
       <c r="C148"/>
@@ -8805,7 +8931,7 @@
       <c r="M148"/>
       <c r="N148"/>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
@@ -8818,7 +8944,7 @@
       <c r="M149"/>
       <c r="N149"/>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150"/>
       <c r="B150"/>
       <c r="C150"/>
@@ -8831,7 +8957,7 @@
       <c r="M150"/>
       <c r="N150"/>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151"/>
       <c r="B151"/>
       <c r="C151"/>
@@ -8844,7 +8970,7 @@
       <c r="M151"/>
       <c r="N151"/>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152"/>
       <c r="B152"/>
       <c r="C152"/>
@@ -8857,7 +8983,7 @@
       <c r="M152"/>
       <c r="N152"/>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153"/>
       <c r="B153"/>
       <c r="C153"/>
@@ -8870,7 +8996,7 @@
       <c r="M153"/>
       <c r="N153"/>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154"/>
       <c r="B154"/>
       <c r="C154"/>
@@ -8883,7 +9009,7 @@
       <c r="M154"/>
       <c r="N154"/>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -8896,7 +9022,7 @@
       <c r="M155"/>
       <c r="N155"/>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156"/>
       <c r="B156"/>
       <c r="C156"/>
@@ -8909,7 +9035,7 @@
       <c r="M156"/>
       <c r="N156"/>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157"/>
       <c r="B157"/>
       <c r="C157"/>
@@ -8922,7 +9048,7 @@
       <c r="M157"/>
       <c r="N157"/>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158"/>
       <c r="B158"/>
       <c r="C158"/>
@@ -8935,7 +9061,7 @@
       <c r="M158"/>
       <c r="N158"/>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159"/>
       <c r="B159"/>
       <c r="C159"/>
@@ -8948,7 +9074,7 @@
       <c r="M159"/>
       <c r="N159"/>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -8961,7 +9087,7 @@
       <c r="M160"/>
       <c r="N160"/>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161"/>
       <c r="B161"/>
       <c r="C161"/>
@@ -8974,7 +9100,7 @@
       <c r="M161"/>
       <c r="N161"/>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162"/>
       <c r="B162"/>
       <c r="C162"/>
@@ -8987,7 +9113,7 @@
       <c r="M162"/>
       <c r="N162"/>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163"/>
       <c r="B163"/>
       <c r="C163"/>
@@ -9000,7 +9126,7 @@
       <c r="M163"/>
       <c r="N163"/>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164"/>
       <c r="B164"/>
       <c r="C164"/>
@@ -9013,7 +9139,7 @@
       <c r="M164"/>
       <c r="N164"/>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -9026,7 +9152,7 @@
       <c r="M165"/>
       <c r="N165"/>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166"/>
       <c r="B166"/>
       <c r="C166"/>
@@ -9039,7 +9165,7 @@
       <c r="M166"/>
       <c r="N166"/>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167"/>
       <c r="B167"/>
       <c r="C167"/>
@@ -9052,7 +9178,7 @@
       <c r="M167"/>
       <c r="N167"/>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
@@ -9065,7 +9191,7 @@
       <c r="M168"/>
       <c r="N168"/>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169"/>
       <c r="B169"/>
       <c r="C169"/>
@@ -9078,7 +9204,7 @@
       <c r="M169"/>
       <c r="N169"/>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170"/>
       <c r="B170"/>
       <c r="C170"/>
@@ -9091,7 +9217,7 @@
       <c r="M170"/>
       <c r="N170"/>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171"/>
       <c r="B171"/>
       <c r="C171"/>
@@ -9104,7 +9230,7 @@
       <c r="M171"/>
       <c r="N171"/>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172"/>
       <c r="B172"/>
       <c r="C172"/>
@@ -9117,7 +9243,7 @@
       <c r="M172"/>
       <c r="N172"/>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173"/>
       <c r="B173"/>
       <c r="C173"/>
@@ -9130,7 +9256,7 @@
       <c r="M173"/>
       <c r="N173"/>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -9143,7 +9269,7 @@
       <c r="M174"/>
       <c r="N174"/>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175"/>
       <c r="B175"/>
       <c r="C175"/>
@@ -9156,7 +9282,7 @@
       <c r="M175"/>
       <c r="N175"/>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176"/>
       <c r="B176"/>
       <c r="C176"/>
@@ -9169,7 +9295,7 @@
       <c r="M176"/>
       <c r="N176"/>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -9182,7 +9308,7 @@
       <c r="M177"/>
       <c r="N177"/>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178"/>
       <c r="B178"/>
       <c r="C178"/>
@@ -9195,7 +9321,7 @@
       <c r="M178"/>
       <c r="N178"/>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
@@ -9208,7 +9334,7 @@
       <c r="M179"/>
       <c r="N179"/>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
@@ -9221,7 +9347,7 @@
       <c r="M180"/>
       <c r="N180"/>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
@@ -9234,7 +9360,7 @@
       <c r="M181"/>
       <c r="N181"/>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
@@ -9247,7 +9373,7 @@
       <c r="M182"/>
       <c r="N182"/>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -9260,7 +9386,7 @@
       <c r="M183"/>
       <c r="N183"/>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184"/>
       <c r="B184"/>
       <c r="C184"/>
@@ -9273,7 +9399,7 @@
       <c r="M184"/>
       <c r="N184"/>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185"/>
       <c r="B185"/>
       <c r="C185"/>
@@ -9286,7 +9412,7 @@
       <c r="M185"/>
       <c r="N185"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186"/>
       <c r="B186"/>
       <c r="C186"/>
@@ -9299,7 +9425,7 @@
       <c r="M186"/>
       <c r="N186"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187"/>
       <c r="B187"/>
       <c r="C187"/>
@@ -9312,7 +9438,7 @@
       <c r="M187"/>
       <c r="N187"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188"/>
       <c r="B188"/>
       <c r="C188"/>
@@ -9325,7 +9451,7 @@
       <c r="M188"/>
       <c r="N188"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189"/>
       <c r="B189"/>
       <c r="C189"/>
@@ -9338,7 +9464,7 @@
       <c r="M189"/>
       <c r="N189"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190"/>
       <c r="B190"/>
       <c r="C190"/>
@@ -9351,7 +9477,7 @@
       <c r="M190"/>
       <c r="N190"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -9364,7 +9490,7 @@
       <c r="M191"/>
       <c r="N191"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192"/>
       <c r="B192"/>
       <c r="C192"/>
@@ -9377,7 +9503,7 @@
       <c r="M192"/>
       <c r="N192"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193"/>
       <c r="B193"/>
       <c r="C193"/>
@@ -9390,7 +9516,7 @@
       <c r="M193"/>
       <c r="N193"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194"/>
       <c r="B194"/>
       <c r="C194"/>
@@ -9403,7 +9529,7 @@
       <c r="M194"/>
       <c r="N194"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195"/>
       <c r="B195"/>
       <c r="C195"/>
@@ -9416,7 +9542,7 @@
       <c r="M195"/>
       <c r="N195"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196"/>
       <c r="B196"/>
       <c r="C196"/>
@@ -9429,7 +9555,7 @@
       <c r="M196"/>
       <c r="N196"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197"/>
       <c r="B197"/>
       <c r="C197"/>
@@ -9442,7 +9568,7 @@
       <c r="M197"/>
       <c r="N197"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198"/>
       <c r="B198"/>
       <c r="C198"/>
@@ -9455,7 +9581,7 @@
       <c r="M198"/>
       <c r="N198"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199"/>
       <c r="B199"/>
       <c r="C199"/>
@@ -9468,7 +9594,7 @@
       <c r="M199"/>
       <c r="N199"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200"/>
       <c r="B200"/>
       <c r="C200"/>
@@ -9481,7 +9607,7 @@
       <c r="M200"/>
       <c r="N200"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201"/>
       <c r="B201"/>
       <c r="C201"/>
@@ -9494,7 +9620,7 @@
       <c r="M201"/>
       <c r="N201"/>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202"/>
       <c r="B202"/>
       <c r="C202"/>
@@ -9507,7 +9633,7 @@
       <c r="M202"/>
       <c r="N202"/>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
@@ -9520,7 +9646,7 @@
       <c r="M203"/>
       <c r="N203"/>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204"/>
       <c r="B204"/>
       <c r="C204"/>
@@ -9533,7 +9659,7 @@
       <c r="M204"/>
       <c r="N204"/>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
@@ -9546,7 +9672,7 @@
       <c r="M205"/>
       <c r="N205"/>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
@@ -9559,7 +9685,7 @@
       <c r="M206"/>
       <c r="N206"/>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207"/>
       <c r="B207"/>
       <c r="C207"/>
@@ -9572,7 +9698,7 @@
       <c r="M207"/>
       <c r="N207"/>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208"/>
       <c r="B208"/>
       <c r="C208"/>
@@ -9585,7 +9711,7 @@
       <c r="M208"/>
       <c r="N208"/>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209"/>
       <c r="B209"/>
       <c r="C209"/>
@@ -9598,7 +9724,7 @@
       <c r="M209"/>
       <c r="N209"/>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -9611,7 +9737,7 @@
       <c r="M210"/>
       <c r="N210"/>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211"/>
       <c r="B211"/>
       <c r="C211"/>
@@ -9624,7 +9750,7 @@
       <c r="M211"/>
       <c r="N211"/>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212"/>
       <c r="B212"/>
       <c r="C212"/>
@@ -9637,7 +9763,7 @@
       <c r="M212"/>
       <c r="N212"/>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -9650,7 +9776,7 @@
       <c r="M213"/>
       <c r="N213"/>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214"/>
       <c r="B214"/>
       <c r="C214"/>
@@ -9663,7 +9789,7 @@
       <c r="M214"/>
       <c r="N214"/>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
@@ -9676,7 +9802,7 @@
       <c r="M215"/>
       <c r="N215"/>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -9689,7 +9815,7 @@
       <c r="M216"/>
       <c r="N216"/>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
@@ -9702,7 +9828,7 @@
       <c r="M217"/>
       <c r="N217"/>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -9715,7 +9841,7 @@
       <c r="M218"/>
       <c r="N218"/>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219"/>
       <c r="B219"/>
       <c r="C219"/>
@@ -9728,7 +9854,7 @@
       <c r="M219"/>
       <c r="N219"/>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220"/>
       <c r="B220"/>
       <c r="C220"/>
@@ -9741,7 +9867,7 @@
       <c r="M220"/>
       <c r="N220"/>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221"/>
       <c r="B221"/>
       <c r="C221"/>
@@ -9754,7 +9880,7 @@
       <c r="M221"/>
       <c r="N221"/>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -9767,7 +9893,7 @@
       <c r="M222"/>
       <c r="N222"/>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223"/>
       <c r="B223"/>
       <c r="C223"/>
@@ -9780,7 +9906,7 @@
       <c r="M223"/>
       <c r="N223"/>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224"/>
       <c r="B224"/>
       <c r="C224"/>
@@ -9793,7 +9919,7 @@
       <c r="M224"/>
       <c r="N224"/>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225"/>
       <c r="B225"/>
       <c r="C225"/>
@@ -9806,7 +9932,7 @@
       <c r="M225"/>
       <c r="N225"/>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226"/>
       <c r="B226"/>
       <c r="C226"/>
@@ -9819,7 +9945,7 @@
       <c r="M226"/>
       <c r="N226"/>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227"/>
       <c r="B227"/>
       <c r="C227"/>
@@ -9832,7 +9958,7 @@
       <c r="M227"/>
       <c r="N227"/>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228"/>
       <c r="B228"/>
       <c r="C228"/>
@@ -9845,7 +9971,7 @@
       <c r="M228"/>
       <c r="N228"/>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229"/>
       <c r="B229"/>
       <c r="C229"/>
@@ -9858,7 +9984,7 @@
       <c r="M229"/>
       <c r="N229"/>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230"/>
       <c r="B230"/>
       <c r="C230"/>
@@ -9871,7 +9997,7 @@
       <c r="M230"/>
       <c r="N230"/>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231"/>
       <c r="B231"/>
       <c r="C231"/>
@@ -9884,7 +10010,7 @@
       <c r="M231"/>
       <c r="N231"/>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232"/>
       <c r="B232"/>
       <c r="C232"/>
@@ -9897,7 +10023,7 @@
       <c r="M232"/>
       <c r="N232"/>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233"/>
       <c r="B233"/>
       <c r="C233"/>
@@ -9925,20 +10051,20 @@
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="37.73046875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="35.796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.73046875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="47.796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.796875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="42.73046875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="35.796875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="46.796875" customWidth="1"/>
-    <col min="11" max="12" width="23.19921875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="37.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="35.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="46.85546875" customWidth="1"/>
+    <col min="11" max="12" width="23.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -9976,7 +10102,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>320</v>
       </c>
@@ -9986,24 +10112,24 @@
       <c r="E2" s="21"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:13" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>159</v>
       </c>
       <c r="J5" s="23"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="19"/>
@@ -10017,7 +10143,7 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
     </row>
-    <row r="7" spans="1:13" s="47" customFormat="1" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" s="47" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>305</v>
       </c>
@@ -10056,7 +10182,7 @@
       </c>
       <c r="M7" s="50"/>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -10069,7 +10195,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -10082,7 +10208,7 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -10095,7 +10221,7 @@
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -10108,7 +10234,7 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -10121,7 +10247,7 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -10134,7 +10260,7 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -10147,7 +10273,7 @@
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -10160,7 +10286,7 @@
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -10173,7 +10299,7 @@
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -10186,7 +10312,7 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -10199,7 +10325,7 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -10212,14 +10338,14 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="4"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="4"/>
@@ -10242,23 +10368,23 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.53125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.53125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.46484375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.46484375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.46484375" customWidth="1"/>
-    <col min="8" max="8" width="42.19921875" customWidth="1"/>
-    <col min="9" max="9" width="23.19921875" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="32.19921875" customWidth="1"/>
-    <col min="12" max="12" width="23.46484375" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>195</v>
       </c>
@@ -10290,29 +10416,29 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>122</v>
       </c>
@@ -10329,7 +10455,7 @@
       <c r="L8" s="27"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -10343,7 +10469,7 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="1:13" s="49" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" s="49" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>205</v>
       </c>
@@ -10378,10 +10504,10 @@
       <c r="L10" s="45"/>
       <c r="M10" s="46"/>
     </row>
-    <row r="11" spans="1:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10398,20 +10524,20 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="37.73046875" style="4" customWidth="1"/>
-    <col min="3" max="4" width="35.796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.73046875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="47.796875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.796875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="42.73046875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="35.796875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="46.796875" customWidth="1"/>
-    <col min="11" max="12" width="23.19921875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="37.7109375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="35.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="47.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="35.85546875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="46.85546875" customWidth="1"/>
+    <col min="11" max="12" width="23.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -10449,7 +10575,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>320</v>
       </c>
@@ -10459,24 +10585,24 @@
       <c r="E2" s="21"/>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:13" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>159</v>
       </c>
       <c r="J5" s="23"/>
       <c r="M5" s="23"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="19"/>
@@ -10490,7 +10616,7 @@
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
     </row>
-    <row r="7" spans="1:13" s="47" customFormat="1" ht="193.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" s="47" customFormat="1" ht="193.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>305</v>
       </c>
@@ -10529,7 +10655,7 @@
       </c>
       <c r="M7" s="50"/>
     </row>
-    <row r="8" spans="1:13" s="8" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -10542,7 +10668,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -10555,7 +10681,7 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -10568,7 +10694,7 @@
       <c r="K10"/>
       <c r="L10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -10581,7 +10707,7 @@
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -10594,7 +10720,7 @@
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -10607,7 +10733,7 @@
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -10620,7 +10746,7 @@
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -10633,7 +10759,7 @@
       <c r="K15"/>
       <c r="L15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -10646,7 +10772,7 @@
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -10659,7 +10785,7 @@
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -10672,7 +10798,7 @@
       <c r="K18"/>
       <c r="L18"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -10685,14 +10811,14 @@
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="4"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="4"/>
@@ -10714,16 +10840,16 @@
       <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.46484375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.53125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="58.19921875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="63.53125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.53125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>69</v>
       </c>
@@ -10740,34 +10866,34 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>316</v>
       </c>
       <c r="B2" s="21"/>
     </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>232</v>
       </c>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="19"/>
@@ -10775,7 +10901,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" s="47" customFormat="1" ht="285.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" s="47" customFormat="1" ht="285.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>305</v>
       </c>
@@ -10793,23 +10919,23 @@
       </c>
       <c r="F8" s="50"/>
     </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
@@ -10826,21 +10952,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.46484375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.53125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="58.19921875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="63.53125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="27.53125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>69</v>
       </c>
@@ -10857,34 +10983,34 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>316</v>
       </c>
       <c r="B2" s="21"/>
     </row>
-    <row r="3" spans="1:6" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>232</v>
       </c>
       <c r="F6" s="23"/>
     </row>
-    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
       <c r="B7" s="22"/>
       <c r="C7" s="19"/>
@@ -10892,7 +11018,7 @@
       <c r="E7" s="22"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:6" s="47" customFormat="1" ht="285.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" s="47" customFormat="1" ht="285.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="48" t="s">
         <v>305</v>
       </c>
@@ -10910,23 +11036,213 @@
       </c>
       <c r="F8" s="50"/>
     </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="7"/>
       <c r="D9" s="10"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
     </row>
-    <row r="14" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" s="47" customFormat="1" ht="285.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="14" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="63.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="D1" s="37"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" s="47" customFormat="1" ht="285.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="14" spans="1:6" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
@@ -10949,26 +11265,26 @@
       <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.46484375" customWidth="1"/>
-    <col min="2" max="2" width="22.46484375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.19921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.53125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.19921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.46484375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="31" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.46484375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="4" customWidth="1"/>
     <col min="9" max="9" width="18" style="4" customWidth="1"/>
-    <col min="10" max="10" width="27.53125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="36.46484375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="24.46484375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="27.46484375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="18.46484375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="22.19921875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="36.42578125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -11015,7 +11331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>46</v>
       </c>
@@ -11034,7 +11350,7 @@
       <c r="N2" s="28"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:15" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>50</v>
       </c>
@@ -11049,7 +11365,7 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
     </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -11064,7 +11380,7 @@
       <c r="N4" s="23"/>
       <c r="O4" s="23"/>
     </row>
-    <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>122</v>
       </c>
@@ -11083,7 +11399,7 @@
       <c r="N5" s="27"/>
       <c r="O5" s="19"/>
     </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -11099,7 +11415,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" s="60" customFormat="1" ht="100.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" s="60" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="58" t="s">
         <v>124</v>
       </c>
@@ -11146,7 +11462,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="18" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -11162,7 +11478,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -11178,7 +11494,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
     </row>
-    <row r="10" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -11194,7 +11510,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
     </row>
-    <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -11210,13 +11526,13 @@
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13"/>
       <c r="E13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14"/>
       <c r="E14"/>
@@ -11231,7 +11547,7 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B15"/>
       <c r="C15"/>
       <c r="E15"/>
@@ -11246,7 +11562,7 @@
       <c r="N15"/>
       <c r="O15"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16"/>
       <c r="C16"/>
       <c r="E16"/>
@@ -11261,7 +11577,7 @@
       <c r="N16"/>
       <c r="O16"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17"/>
       <c r="C17"/>
       <c r="E17"/>
@@ -11276,193 +11592,193 @@
       <c r="N17"/>
       <c r="O17"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18"/>
       <c r="C18"/>
       <c r="E18"/>
       <c r="J18"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19"/>
       <c r="C19"/>
       <c r="E19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="E20"/>
       <c r="J20"/>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="E21"/>
       <c r="J21"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="E22"/>
       <c r="J22"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="E23"/>
       <c r="J23"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="E24"/>
       <c r="J24"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="E25"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="E26" s="9"/>
       <c r="J26"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="J27"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="E28"/>
       <c r="J28"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="E30"/>
       <c r="J30"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="E32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35"/>
       <c r="C35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36"/>
       <c r="C36"/>
       <c r="E36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37"/>
       <c r="C37"/>
       <c r="E37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38"/>
       <c r="C38"/>
       <c r="E38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39"/>
       <c r="C39"/>
       <c r="E39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40"/>
       <c r="C40"/>
       <c r="E40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41"/>
       <c r="C41"/>
       <c r="E41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42"/>
       <c r="C42"/>
       <c r="E42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43"/>
       <c r="C43"/>
       <c r="E43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44"/>
       <c r="C44"/>
       <c r="E44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45"/>
       <c r="C45"/>
       <c r="E45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46"/>
       <c r="C46"/>
       <c r="E46"/>
       <c r="J46"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47"/>
       <c r="C47"/>
       <c r="E47"/>
       <c r="J47"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48"/>
       <c r="C48"/>
       <c r="E48"/>
       <c r="J48"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49"/>
       <c r="C49"/>
       <c r="E49"/>
       <c r="J49"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50"/>
       <c r="C50"/>
       <c r="E50"/>
@@ -11484,23 +11800,23 @@
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.53125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="22.796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31.796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.53125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="36.46484375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.46484375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.46484375" customWidth="1"/>
-    <col min="8" max="8" width="42.19921875" customWidth="1"/>
-    <col min="9" max="9" width="23.19921875" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="42.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="32.19921875" customWidth="1"/>
-    <col min="12" max="12" width="23.46484375" customWidth="1"/>
+    <col min="11" max="11" width="32.140625" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>100</v>
       </c>
@@ -11538,29 +11854,29 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>122</v>
       </c>
@@ -11577,7 +11893,7 @@
       <c r="L8" s="27"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -11591,7 +11907,7 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="1:13" s="49" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" s="49" customFormat="1" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>140</v>
       </c>
@@ -11628,12 +11944,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I12" s="70"/>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I14" s="70"/>
     </row>
   </sheetData>
@@ -11652,21 +11968,21 @@
       <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="39.46484375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="18" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.796875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.53125" customWidth="1"/>
-    <col min="6" max="6" width="27.53125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.46484375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27.46484375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.46484375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="24.53125" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -11698,23 +12014,23 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="21"/>
     </row>
-    <row r="4" spans="1:13" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>60</v>
       </c>
@@ -11724,7 +12040,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>91</v>
       </c>
@@ -11734,7 +12050,7 @@
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="19"/>
@@ -11742,7 +12058,7 @@
       <c r="G8" s="19"/>
       <c r="H8" s="19"/>
     </row>
-    <row r="9" spans="1:13" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>122</v>
       </c>
@@ -11759,7 +12075,7 @@
       <c r="L9" s="27"/>
       <c r="M9" s="19"/>
     </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -11773,7 +12089,7 @@
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="1:13" s="49" customFormat="1" ht="111.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" s="49" customFormat="1" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>94</v>
       </c>
@@ -11804,7 +12120,7 @@
       <c r="L11" s="45"/>
       <c r="M11" s="46"/>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="19"/>
@@ -11812,7 +12128,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -11820,7 +12136,7 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -11830,7 +12146,7 @@
       <c r="H15"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -11840,7 +12156,7 @@
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -11850,7 +12166,7 @@
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -11860,7 +12176,7 @@
       <c r="H18"/>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -11870,7 +12186,7 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -11880,7 +12196,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -11890,7 +12206,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -11900,7 +12216,7 @@
       <c r="H22"/>
       <c r="I22"/>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11917,19 +12233,19 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.796875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="31.796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.53125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="78.46484375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.46484375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="44.73046875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="31.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="78.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="44.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="56" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.796875" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>107</v>
       </c>
@@ -11955,25 +12271,25 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:15" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>101</v>
       </c>
       <c r="H3" s="35"/>
     </row>
-    <row r="4" spans="1:15" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>102</v>
       </c>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -11981,7 +12297,7 @@
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:15" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" s="18" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>122</v>
       </c>
@@ -12000,7 +12316,7 @@
       <c r="N7" s="27"/>
       <c r="O7" s="19"/>
     </row>
-    <row r="8" spans="1:15" s="18" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" s="18" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
@@ -12016,7 +12332,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
     </row>
-    <row r="9" spans="1:15" s="71" customFormat="1" ht="111.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" s="71" customFormat="1" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>156</v>
       </c>
@@ -12045,7 +12361,7 @@
       <c r="N9" s="45"/>
       <c r="O9" s="46"/>
     </row>
-    <row r="10" spans="1:15" s="18" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -12053,7 +12369,7 @@
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
     </row>
-    <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
@@ -12061,7 +12377,7 @@
       <c r="G11" s="19"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -12069,7 +12385,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
@@ -12077,27 +12393,27 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E15" s="63"/>
     </row>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E16" s="63"/>
     </row>
-    <row r="17" spans="5:9" s="4" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E17" s="63"/>
     </row>
-    <row r="18" spans="5:9" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="5:9" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="5:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="5:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="9"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="5:9" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" s="9"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="5:9" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="5:9" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12114,18 +12430,18 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.53125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.46484375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.46484375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="37.53125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.796875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>110</v>
       </c>
@@ -12148,25 +12464,25 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>220</v>
       </c>
       <c r="F3" s="35"/>
     </row>
-    <row r="4" spans="1:13" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>109</v>
       </c>
       <c r="F4" s="23"/>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="23"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>158</v>
       </c>
@@ -12175,7 +12491,7 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>94</v>
       </c>
@@ -12184,14 +12500,14 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:13" s="49" customFormat="1" ht="111.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" s="49" customFormat="1" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>214</v>
       </c>
@@ -12218,42 +12534,42 @@
       <c r="L9" s="45"/>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
     </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E16" s="4" t="s">
         <v>115</v>
       </c>
@@ -12274,18 +12590,18 @@
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.53125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="34.46484375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="27.46484375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="37.53125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="21.796875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
+    <col min="4" max="5" width="34.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37.5703125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>116</v>
       </c>
@@ -12311,25 +12627,25 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="54" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" s="54" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>222</v>
       </c>
       <c r="G3" s="55"/>
     </row>
-    <row r="4" spans="1:13" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>109</v>
       </c>
       <c r="G4" s="23"/>
     </row>
-    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>59</v>
       </c>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>158</v>
       </c>
@@ -12338,7 +12654,7 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
     </row>
-    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>94</v>
       </c>
@@ -12347,14 +12663,14 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
     </row>
-    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
     </row>
-    <row r="9" spans="1:13" s="49" customFormat="1" ht="111.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" s="49" customFormat="1" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>214</v>
       </c>
@@ -12383,7 +12699,7 @@
       <c r="L9" s="45"/>
       <c r="M9" s="46"/>
     </row>
-    <row r="10" spans="1:13" s="18" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -12391,7 +12707,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -12399,7 +12715,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -12407,7 +12723,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
@@ -12415,7 +12731,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -12424,7 +12740,7 @@
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -12433,7 +12749,7 @@
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -12442,7 +12758,7 @@
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F18" s="4" t="s">
         <v>115</v>
       </c>
@@ -12462,27 +12778,27 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="24.46484375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="63.59765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="50.46484375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="92.19921875" style="4" customWidth="1"/>
+    <col min="1" max="2" width="24.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="63.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="92.140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="29" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.46484375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.53125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.53125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="21.19921875" customWidth="1"/>
-    <col min="11" max="11" width="18.19921875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="23.19921875" customWidth="1"/>
-    <col min="13" max="13" width="23.53125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="23.140625" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
     <col min="14" max="14" width="19" customWidth="1"/>
     <col min="15" max="15" width="19" style="4" customWidth="1"/>
-    <col min="16" max="16" width="20.53125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="17.53125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -12535,7 +12851,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="20" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" s="20" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>48</v>
       </c>
@@ -12546,7 +12862,7 @@
       <c r="P2" s="35"/>
       <c r="Q2" s="35"/>
     </row>
-    <row r="3" spans="1:17" s="17" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" s="17" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>58</v>
       </c>
@@ -12555,7 +12871,7 @@
       <c r="P3" s="23"/>
       <c r="Q3" s="23"/>
     </row>
-    <row r="4" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>59</v>
       </c>
@@ -12564,7 +12880,7 @@
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
     </row>
-    <row r="5" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>159</v>
       </c>
@@ -12573,7 +12889,7 @@
       <c r="P5" s="23"/>
       <c r="Q5" s="23"/>
     </row>
-    <row r="6" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -12588,7 +12904,7 @@
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
     </row>
-    <row r="7" spans="1:17" s="47" customFormat="1" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" s="47" customFormat="1" ht="136.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
         <v>160</v>
       </c>
@@ -12639,7 +12955,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="18" customFormat="1" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" s="18" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
@@ -12654,7 +12970,7 @@
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
     </row>
-    <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
@@ -12669,7 +12985,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -12684,7 +13000,7 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
     </row>
-    <row r="11" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D11" s="19"/>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -12697,7 +13013,7 @@
       <c r="P11" s="19"/>
       <c r="Q11" s="19"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13"/>
       <c r="D13"/>
       <c r="E13" s="72"/>
@@ -12710,7 +13026,7 @@
       <c r="P13"/>
       <c r="Q13"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14"/>
       <c r="D14"/>
       <c r="E14" s="72"/>
@@ -12723,7 +13039,7 @@
       <c r="P14"/>
       <c r="Q14"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -12736,7 +13052,7 @@
       <c r="P15"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="D16"/>
       <c r="E16" s="72"/>
@@ -12749,7 +13065,7 @@
       <c r="P16"/>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -12762,7 +13078,7 @@
       <c r="P17"/>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="D18"/>
       <c r="E18" s="72"/>
@@ -12775,7 +13091,7 @@
       <c r="P18"/>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="C19" s="7"/>
       <c r="D19"/>
@@ -12789,7 +13105,7 @@
       <c r="P19"/>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="1:17" ht="24.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -12804,7 +13120,7 @@
       <c r="P20"/>
       <c r="Q20"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21"/>
       <c r="C21" s="7"/>
       <c r="D21"/>
@@ -12818,7 +13134,7 @@
       <c r="P21"/>
       <c r="Q21"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -12833,7 +13149,7 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="C23" s="7"/>
       <c r="D23"/>
@@ -12847,7 +13163,7 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -12862,7 +13178,7 @@
       <c r="P24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="C25" s="7"/>
       <c r="D25"/>
@@ -12876,7 +13192,7 @@
       <c r="P25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -12891,7 +13207,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="C27" s="7"/>
       <c r="D27"/>
@@ -12905,7 +13221,7 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -12918,7 +13234,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="C29" s="7"/>
       <c r="D29"/>
@@ -12932,7 +13248,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -12945,7 +13261,7 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31"/>
       <c r="C31" s="7"/>
       <c r="D31"/>
@@ -12959,7 +13275,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -12972,7 +13288,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33"/>
       <c r="C33" s="7"/>
       <c r="D33"/>
@@ -12986,7 +13302,7 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D34" s="4"/>
       <c r="F34" s="7"/>
       <c r="J34" s="4"/>
